--- a/Receita Propria Consolidado.xlsx
+++ b/Receita Propria Consolidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistemas Prefeitura\WEB\Dashboard Tributos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05F3FDF-0F07-42AB-95EC-2A91197B090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EFB389-A1DD-4433-AB25-817DF6B1FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +544,15 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="6">
+        <v>234713537.90000001</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
